--- a/biology/Zoologie/Hemidactyliinae/Hemidactyliinae.xlsx
+++ b/biology/Zoologie/Hemidactyliinae/Hemidactyliinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Hemidactyliinae sont une sous-famille d'urodèles[1]. Elle a été créée par Edward Hallowell en 1856.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Hemidactyliinae sont une sous-famille d'urodèles. Elle a été créée par Edward Hallowell en 1856.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de cette sous-famille se rencontrent du Sud du Canada au Brésil[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de cette sous-famille se rencontrent du Sud du Canada au Brésil.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (16 septembre 2015)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (16 septembre 2015) :
 Aquiloeurycea Rovito, Parra-Olea, Recuero &amp; Wake, 2015
 Batrachoseps Bonaparte, 1839
 Bolitoglossa Duméril, Bibron &amp; Duméril, 1854
@@ -593,9 +609,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification de cette sous-famille a fortement évolué à la suite des travaux de Vieites, Román, Wake et Wake de 2011, qui ont fusionné les trois anciennes sous-familles des Bolitoglossinae[3], des Hemidactyliinae et des Spelerpinae[4] dans une seule sous-famille des Hemidactyliinae agrandie[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification de cette sous-famille a fortement évolué à la suite des travaux de Vieites, Román, Wake et Wake de 2011, qui ont fusionné les trois anciennes sous-familles des Bolitoglossinae, des Hemidactyliinae et des Spelerpinae dans une seule sous-famille des Hemidactyliinae agrandie.
 </t>
         </is>
       </c>
@@ -624,7 +642,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Gray, 1850 : Catalogue of the Specimens of Amphibia in the Collection of the British Museum. Part II. Batrachia Gradientia (texte intégral).</t>
         </is>
